--- a/math2.xlsx
+++ b/math2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Desktop\RST\Math2\1.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Desktop\RST\Math2\1.3\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3C2E9F-909B-4896-93B5-22E83EBF7A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E61592-1C5D-42CA-9950-6B76E9331AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="682">
   <si>
-    <t>Student ID</t>
-  </si>
-  <si>
-    <t>Student Name</t>
-  </si>
-  <si>
     <t>Ahmed Ibrahim Mohamed Shibl</t>
   </si>
   <si>
@@ -1045,9 +1039,6 @@
     <t>Menna Allah Mustafa</t>
   </si>
   <si>
-    <t>Quiz 1</t>
-  </si>
-  <si>
     <t>30506020106625</t>
   </si>
   <si>
@@ -2062,10 +2053,19 @@
     <t>30507171700215</t>
   </si>
   <si>
-    <t>Midterm</t>
-  </si>
-  <si>
     <t>National ID</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>Quiz1</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -2103,9 +2103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2445,7 +2448,7 @@
   <dimension ref="A1:E340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.45"/>
@@ -2457,54 +2460,54 @@
     <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>680</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>341</v>
+        <v>679</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B2" s="1">
         <v>2301008</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B3" s="1">
         <v>2301014</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B4" s="1">
         <v>2301018</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -2512,35 +2515,35 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B5" s="1">
         <v>2301137</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B6" s="1">
         <v>2301160</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B7" s="1">
         <v>2301184</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -2548,24 +2551,24 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B8" s="1">
         <v>2301224</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B9" s="1">
         <v>2301263</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
         <v>4</v>
@@ -2573,24 +2576,24 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B10" s="1">
         <v>2301304</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B11" s="1">
         <v>2301305</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -2598,13 +2601,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B12" s="1">
         <v>2401001</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -2615,13 +2618,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B13" s="1">
         <v>2401003</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1">
         <v>7</v>
@@ -2632,13 +2635,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B14" s="1">
         <v>2401007</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1">
         <v>17</v>
@@ -2646,24 +2649,24 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B15" s="1">
         <v>2401008</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B16" s="1">
         <v>2401009</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1">
         <v>13</v>
@@ -2674,13 +2677,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B17" s="1">
         <v>2401011</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1">
         <v>8</v>
@@ -2688,13 +2691,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B18" s="1">
         <v>2401013</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
@@ -2705,13 +2708,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B19" s="1">
         <v>2401014</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1">
         <v>9</v>
@@ -2719,13 +2722,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B20" s="1">
         <v>2401015</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1">
         <v>12</v>
@@ -2733,13 +2736,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B21" s="1">
         <v>2401016</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1">
         <v>7</v>
@@ -2750,13 +2753,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B22" s="1">
         <v>2401019</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1">
         <v>9</v>
@@ -2767,13 +2770,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B23" s="1">
         <v>2401022</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1">
         <v>13</v>
@@ -2784,13 +2787,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B24" s="1">
         <v>2401023</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -2801,13 +2804,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B25" s="1">
         <v>2401025</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -2818,13 +2821,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B26" s="1">
         <v>2401026</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E26" s="1">
         <v>9</v>
@@ -2832,13 +2835,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B27" s="1">
         <v>2401030</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1">
         <v>6</v>
@@ -2849,13 +2852,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B28" s="1">
         <v>2401032</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1">
         <v>13</v>
@@ -2866,13 +2869,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B29" s="1">
         <v>2401034</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1">
         <v>10</v>
@@ -2883,13 +2886,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B30" s="1">
         <v>2401038</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1">
         <v>15</v>
@@ -2900,13 +2903,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B31" s="1">
         <v>2401039</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1">
         <v>11</v>
@@ -2917,13 +2920,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B32" s="1">
         <v>2401040</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E32" s="1">
         <v>13</v>
@@ -2931,13 +2934,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B33" s="1">
         <v>2401041</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E33" s="1">
         <v>7</v>
@@ -2945,13 +2948,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B34" s="1">
         <v>2401045</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
@@ -2962,13 +2965,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B35" s="1">
         <v>2401048</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35" s="1">
         <v>6</v>
@@ -2979,13 +2982,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B36" s="1">
         <v>2401049</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E36" s="1">
         <v>8</v>
@@ -2993,13 +2996,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B37" s="1">
         <v>2401051</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -3010,13 +3013,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B38" s="1">
         <v>2401052</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E38" s="1">
         <v>9</v>
@@ -3024,13 +3027,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B39" s="1">
         <v>2401054</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D39" s="1">
         <v>9</v>
@@ -3041,13 +3044,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B40" s="1">
         <v>2401057</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E40" s="1">
         <v>5</v>
@@ -3055,13 +3058,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B41" s="1">
         <v>2401059</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E41" s="1">
         <v>7</v>
@@ -3069,24 +3072,24 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B42" s="1">
         <v>2401063</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B43" s="1">
         <v>2401065</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D43" s="1">
         <v>6</v>
@@ -3097,13 +3100,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B44" s="1">
         <v>2401068</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D44" s="1">
         <v>11</v>
@@ -3114,13 +3117,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B45" s="1">
         <v>2401069</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
@@ -3131,13 +3134,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B46" s="1">
         <v>2401070</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D46" s="1">
         <v>2</v>
@@ -3148,13 +3151,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B47" s="1">
         <v>2401071</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D47" s="1">
         <v>6</v>
@@ -3165,13 +3168,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B48" s="1">
         <v>2401080</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1">
         <v>6</v>
@@ -3182,13 +3185,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B49" s="1">
         <v>2401082</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -3199,13 +3202,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B50" s="1">
         <v>2401091</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -3216,13 +3219,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B51" s="1">
         <v>2401094</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D51" s="1">
         <v>10</v>
@@ -3233,13 +3236,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B52" s="1">
         <v>2401104</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D52" s="1">
         <v>11</v>
@@ -3250,13 +3253,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B53" s="1">
         <v>2401105</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -3264,13 +3267,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B54" s="1">
         <v>2401111</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -3281,13 +3284,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B55" s="1">
         <v>2401114</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D55" s="1">
         <v>2</v>
@@ -3298,13 +3301,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B56" s="1">
         <v>2401115</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -3315,13 +3318,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B57" s="1">
         <v>2401122</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D57" s="1">
         <v>11</v>
@@ -3332,13 +3335,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B58" s="1">
         <v>2401125</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -3349,13 +3352,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B59" s="1">
         <v>2401131</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -3366,13 +3369,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B60" s="1">
         <v>2401132</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -3383,13 +3386,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B61" s="1">
         <v>2401133</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -3400,13 +3403,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B62" s="1">
         <v>2401134</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -3417,13 +3420,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B63" s="1">
         <v>2401135</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
@@ -3434,13 +3437,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B64" s="1">
         <v>2401136</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -3451,13 +3454,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B65" s="1">
         <v>2401139</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D65" s="1">
         <v>7</v>
@@ -3468,13 +3471,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B66" s="1">
         <v>2401140</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -3485,13 +3488,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B67" s="1">
         <v>2401142</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D67" s="1">
         <v>3</v>
@@ -3502,13 +3505,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B68" s="1">
         <v>2401145</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
@@ -3519,13 +3522,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B69" s="1">
         <v>2401146</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D69" s="1">
         <v>5</v>
@@ -3536,13 +3539,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B70" s="1">
         <v>2401147</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
@@ -3550,13 +3553,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B71" s="1">
         <v>2401150</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
@@ -3567,13 +3570,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B72" s="1">
         <v>2401151</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D72" s="1">
         <v>7</v>
@@ -3584,13 +3587,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B73" s="1">
         <v>2401152</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D73" s="1">
         <v>15</v>
@@ -3601,13 +3604,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B74" s="1">
         <v>2401153</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
@@ -3618,13 +3621,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B75" s="1">
         <v>2401154</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
@@ -3635,13 +3638,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B76" s="1">
         <v>2401157</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E76" s="1">
         <v>0</v>
@@ -3649,13 +3652,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B77" s="1">
         <v>2401159</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D77" s="1">
         <v>13</v>
@@ -3666,13 +3669,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B78" s="1">
         <v>2401160</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E78" s="1">
         <v>2</v>
@@ -3680,13 +3683,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B79" s="1">
         <v>2401161</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -3697,13 +3700,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B80" s="1">
         <v>2401163</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D80" s="1">
         <v>5</v>
@@ -3714,13 +3717,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B81" s="1">
         <v>2401164</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D81" s="1">
         <v>6</v>
@@ -3731,13 +3734,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B82" s="1">
         <v>2401165</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D82" s="1">
         <v>4</v>
@@ -3748,13 +3751,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B83" s="1">
         <v>2401166</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E83" s="1">
         <v>8</v>
@@ -3762,13 +3765,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B84" s="1">
         <v>2401167</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -3779,13 +3782,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B85" s="1">
         <v>2401169</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E85" s="1">
         <v>4</v>
@@ -3793,13 +3796,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B86" s="1">
         <v>2401170</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
@@ -3810,13 +3813,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B87" s="1">
         <v>2401172</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D87" s="1">
         <v>10</v>
@@ -3827,13 +3830,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B88" s="1">
         <v>2401173</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D88" s="1">
         <v>4</v>
@@ -3844,13 +3847,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B89" s="1">
         <v>2401174</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D89" s="1">
         <v>13</v>
@@ -3861,13 +3864,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B90" s="1">
         <v>2401177</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D90" s="1">
         <v>9</v>
@@ -3875,13 +3878,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B91" s="1">
         <v>2401178</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -3892,13 +3895,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B92" s="1">
         <v>2401179</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -3909,13 +3912,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B93" s="1">
         <v>2401180</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1">
         <v>9</v>
@@ -3926,13 +3929,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B94" s="1">
         <v>2401181</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D94" s="1">
         <v>13</v>
@@ -3943,13 +3946,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B95" s="1">
         <v>2401182</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
@@ -3960,13 +3963,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B96" s="1">
         <v>2401184</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D96" s="1">
         <v>3</v>
@@ -3977,13 +3980,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B97" s="1">
         <v>2401186</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
@@ -3991,13 +3994,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B98" s="1">
         <v>2401187</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E98" s="1">
         <v>4</v>
@@ -4005,13 +4008,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B99" s="1">
         <v>2401189</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
@@ -4022,13 +4025,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B100" s="1">
         <v>2401190</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D100" s="1">
         <v>14</v>
@@ -4039,24 +4042,24 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B101" s="1">
         <v>2401191</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B102" s="1">
         <v>2401192</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D102" s="1">
         <v>3</v>
@@ -4067,13 +4070,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B103" s="1">
         <v>2401193</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D103" s="1">
         <v>4</v>
@@ -4084,13 +4087,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B104" s="1">
         <v>2401197</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D104" s="1">
         <v>4</v>
@@ -4101,13 +4104,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B105" s="1">
         <v>2401198</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D105" s="1">
         <v>2</v>
@@ -4118,13 +4121,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B106" s="1">
         <v>2401199</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D106" s="1">
         <v>4</v>
@@ -4135,13 +4138,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B107" s="1">
         <v>2401200</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D107" s="1">
         <v>12</v>
@@ -4152,13 +4155,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B108" s="1">
         <v>2401201</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D108" s="1">
         <v>7</v>
@@ -4169,13 +4172,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B109" s="1">
         <v>2401202</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D109" s="1">
         <v>3</v>
@@ -4186,13 +4189,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B110" s="1">
         <v>2401204</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
@@ -4203,13 +4206,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B111" s="1">
         <v>2401207</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E111" s="1">
         <v>13</v>
@@ -4217,13 +4220,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B112" s="1">
         <v>2401208</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D112" s="1">
         <v>6</v>
@@ -4234,13 +4237,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B113" s="1">
         <v>2401209</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D113" s="1">
         <v>13</v>
@@ -4251,13 +4254,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B114" s="1">
         <v>2401210</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -4268,13 +4271,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B115" s="1">
         <v>2401212</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D115" s="1">
         <v>2</v>
@@ -4285,13 +4288,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B116" s="1">
         <v>2401216</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D116" s="1">
         <v>0</v>
@@ -4302,13 +4305,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B117" s="1">
         <v>2401219</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D117" s="1">
         <v>5</v>
@@ -4319,13 +4322,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B118" s="1">
         <v>2401223</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D118" s="1">
         <v>3</v>
@@ -4336,13 +4339,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B119" s="1">
         <v>2401224</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
@@ -4353,13 +4356,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B120" s="1">
         <v>2401226</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D120" s="1">
         <v>0</v>
@@ -4370,13 +4373,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B121" s="1">
         <v>2401227</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D121" s="1">
         <v>5</v>
@@ -4387,13 +4390,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B122" s="1">
         <v>2401228</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
@@ -4404,13 +4407,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B123" s="1">
         <v>2401230</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E123" s="1">
         <v>3</v>
@@ -4418,13 +4421,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B124" s="1">
         <v>2401231</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D124" s="1">
         <v>13</v>
@@ -4435,13 +4438,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B125" s="1">
         <v>2401233</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D125" s="1">
         <v>3</v>
@@ -4452,13 +4455,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B126" s="1">
         <v>2401234</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D126" s="1">
         <v>3</v>
@@ -4469,13 +4472,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B127" s="1">
         <v>2401235</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D127" s="1">
         <v>7</v>
@@ -4486,13 +4489,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B128" s="1">
         <v>2401237</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D128" s="1">
         <v>8</v>
@@ -4503,13 +4506,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B129" s="1">
         <v>2401239</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -4520,13 +4523,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B130" s="1">
         <v>2401241</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D130" s="1">
         <v>6</v>
@@ -4537,13 +4540,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B131" s="1">
         <v>2401242</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D131" s="1">
         <v>5</v>
@@ -4554,13 +4557,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B132" s="1">
         <v>2401244</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D132" s="1">
         <v>1</v>
@@ -4571,13 +4574,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B133" s="1">
         <v>2401245</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D133" s="1">
         <v>4</v>
@@ -4588,13 +4591,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B134" s="1">
         <v>2401246</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D134" s="1">
         <v>0</v>
@@ -4605,13 +4608,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B135" s="1">
         <v>2401247</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D135" s="1">
         <v>3</v>
@@ -4622,13 +4625,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B136" s="1">
         <v>2401253</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D136" s="1">
         <v>4</v>
@@ -4639,13 +4642,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B137" s="1">
         <v>2401254</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D137" s="1">
         <v>7</v>
@@ -4656,13 +4659,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B138" s="1">
         <v>2401256</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D138" s="1">
         <v>5</v>
@@ -4673,13 +4676,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B139" s="1">
         <v>2401258</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D139" s="1">
         <v>0</v>
@@ -4690,13 +4693,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B140" s="1">
         <v>2401262</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D140" s="1">
         <v>2</v>
@@ -4707,13 +4710,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B141" s="1">
         <v>2401265</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D141" s="1">
         <v>0</v>
@@ -4724,13 +4727,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B142" s="1">
         <v>2401266</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D142" s="1">
         <v>0</v>
@@ -4741,13 +4744,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B143" s="1">
         <v>2401267</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E143" s="1">
         <v>5</v>
@@ -4755,13 +4758,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B144" s="1">
         <v>2401269</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D144" s="1">
         <v>1</v>
@@ -4772,13 +4775,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B145" s="1">
         <v>2401271</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D145" s="1">
         <v>2</v>
@@ -4789,13 +4792,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B146" s="1">
         <v>2401272</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E146" s="1">
         <v>10</v>
@@ -4803,13 +4806,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B147" s="1">
         <v>2401275</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D147" s="1">
         <v>0</v>
@@ -4820,13 +4823,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B148" s="1">
         <v>2401276</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D148" s="1">
         <v>6</v>
@@ -4837,13 +4840,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B149" s="1">
         <v>2401279</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D149" s="1">
         <v>10</v>
@@ -4854,13 +4857,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B150" s="1">
         <v>2401283</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D150" s="1">
         <v>8</v>
@@ -4871,13 +4874,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B151" s="1">
         <v>2401284</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D151" s="1">
         <v>10</v>
@@ -4888,13 +4891,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B152" s="1">
         <v>2401285</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D152" s="1">
         <v>0</v>
@@ -4905,13 +4908,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B153" s="1">
         <v>2401286</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D153" s="1">
         <v>1</v>
@@ -4922,13 +4925,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B154" s="1">
         <v>2401287</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D154" s="1">
         <v>2</v>
@@ -4939,13 +4942,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B155" s="1">
         <v>2401288</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D155" s="1">
         <v>9</v>
@@ -4956,13 +4959,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B156" s="1">
         <v>2401289</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D156" s="1">
         <v>12</v>
@@ -4970,13 +4973,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B157" s="1">
         <v>2401291</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D157" s="1">
         <v>1</v>
@@ -4987,13 +4990,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B158" s="1">
         <v>2401293</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D158" s="1">
         <v>12</v>
@@ -5004,13 +5007,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B159" s="1">
         <v>2401294</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D159" s="1">
         <v>5</v>
@@ -5021,13 +5024,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B160" s="1">
         <v>2401295</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E160" s="1">
         <v>8</v>
@@ -5035,13 +5038,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B161" s="1">
         <v>2401299</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D161" s="1">
         <v>7</v>
@@ -5052,13 +5055,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B162" s="1">
         <v>2401303</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D162" s="1">
         <v>1</v>
@@ -5069,13 +5072,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B163" s="1">
         <v>2401304</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D163" s="1">
         <v>11</v>
@@ -5086,13 +5089,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B164" s="1">
         <v>2401305</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D164" s="1">
         <v>11</v>
@@ -5103,13 +5106,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B165" s="1">
         <v>2401307</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D165" s="1">
         <v>6</v>
@@ -5120,13 +5123,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B166" s="1">
         <v>2401308</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5137,13 +5140,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B167" s="1">
         <v>2401311</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D167" s="1">
         <v>5</v>
@@ -5154,13 +5157,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B168" s="1">
         <v>2401312</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D168" s="1">
         <v>6</v>
@@ -5171,13 +5174,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B169" s="1">
         <v>2401314</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D169" s="1">
         <v>0</v>
@@ -5188,13 +5191,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B170" s="1">
         <v>2401315</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D170" s="1">
         <v>9</v>
@@ -5205,13 +5208,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B171" s="1">
         <v>2401316</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D171" s="1">
         <v>8</v>
@@ -5222,13 +5225,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B172" s="1">
         <v>2401317</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D172" s="1">
         <v>11</v>
@@ -5239,13 +5242,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B173" s="1">
         <v>2401321</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E173" s="1">
         <v>14</v>
@@ -5253,13 +5256,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B174" s="1">
         <v>2401323</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D174" s="1">
         <v>0</v>
@@ -5270,13 +5273,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B175" s="1">
         <v>2401324</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D175" s="1">
         <v>5</v>
@@ -5287,13 +5290,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B176" s="1">
         <v>2401325</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D176" s="1">
         <v>5</v>
@@ -5304,13 +5307,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B177" s="1">
         <v>2401329</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D177" s="1">
         <v>4</v>
@@ -5321,13 +5324,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B178" s="1">
         <v>2401331</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D178" s="1">
         <v>7</v>
@@ -5338,13 +5341,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B179" s="1">
         <v>2401335</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D179" s="1">
         <v>12</v>
@@ -5355,13 +5358,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B180" s="1">
         <v>2401336</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D180" s="1">
         <v>3</v>
@@ -5372,13 +5375,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B181" s="1">
         <v>2401337</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D181" s="1">
         <v>1</v>
@@ -5389,13 +5392,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B182" s="1">
         <v>2401338</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D182" s="1">
         <v>3</v>
@@ -5406,13 +5409,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B183" s="1">
         <v>2401340</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D183" s="1">
         <v>9</v>
@@ -5423,13 +5426,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B184" s="1">
         <v>2401341</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D184" s="1">
         <v>1</v>
@@ -5440,13 +5443,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B185" s="1">
         <v>2401342</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D185" s="1">
         <v>3</v>
@@ -5457,13 +5460,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B186" s="1">
         <v>2401348</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E186" s="1">
         <v>9</v>
@@ -5471,13 +5474,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B187" s="1">
         <v>2401351</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D187" s="1">
         <v>2</v>
@@ -5488,13 +5491,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B188" s="1">
         <v>2401352</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -5505,13 +5508,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B189" s="1">
         <v>2401353</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D189" s="1">
         <v>2</v>
@@ -5522,13 +5525,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B190" s="1">
         <v>2401354</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D190" s="1">
         <v>15</v>
@@ -5539,13 +5542,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B191" s="1">
         <v>2401355</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D191" s="1">
         <v>7</v>
@@ -5556,13 +5559,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B192" s="1">
         <v>2401357</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E192" s="1">
         <v>3</v>
@@ -5570,13 +5573,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B193" s="1">
         <v>2401358</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D193" s="1">
         <v>2</v>
@@ -5587,13 +5590,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B194" s="1">
         <v>2401359</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D194" s="1">
         <v>10</v>
@@ -5604,13 +5607,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B195" s="1">
         <v>2401361</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D195" s="1">
         <v>2</v>
@@ -5621,13 +5624,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B196" s="1">
         <v>2401362</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D196" s="1">
         <v>3</v>
@@ -5638,13 +5641,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B197" s="1">
         <v>2401364</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D197" s="1">
         <v>13</v>
@@ -5655,13 +5658,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B198" s="1">
         <v>2401366</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D198" s="1">
         <v>7</v>
@@ -5672,13 +5675,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B199" s="1">
         <v>2401367</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D199" s="1">
         <v>0</v>
@@ -5689,13 +5692,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B200" s="1">
         <v>2401368</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D200" s="1">
         <v>6</v>
@@ -5706,13 +5709,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B201" s="1">
         <v>2401369</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E201" s="1">
         <v>10</v>
@@ -5720,13 +5723,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B202" s="1">
         <v>2401370</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D202" s="1">
         <v>7</v>
@@ -5737,13 +5740,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B203" s="1">
         <v>2401371</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -5754,13 +5757,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B204" s="1">
         <v>2401373</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D204" s="1">
         <v>1</v>
@@ -5768,13 +5771,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B205" s="1">
         <v>2401376</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D205" s="1">
         <v>14</v>
@@ -5785,13 +5788,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B206" s="1">
         <v>2401377</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D206" s="1">
         <v>13</v>
@@ -5802,13 +5805,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B207" s="1">
         <v>2401378</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D207" s="1">
         <v>2</v>
@@ -5819,13 +5822,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B208" s="1">
         <v>2401381</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D208" s="1">
         <v>2</v>
@@ -5836,13 +5839,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B209" s="1">
         <v>2401382</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D209" s="1">
         <v>7</v>
@@ -5853,13 +5856,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B210" s="1">
         <v>2401385</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -5870,13 +5873,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B211" s="1">
         <v>2401387</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D211" s="1">
         <v>9</v>
@@ -5887,13 +5890,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B212" s="1">
         <v>2401390</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D212" s="1">
         <v>9</v>
@@ -5904,13 +5907,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B213" s="1">
         <v>2401391</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D213" s="1">
         <v>2</v>
@@ -5921,13 +5924,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B214" s="1">
         <v>2401393</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D214" s="1">
         <v>2</v>
@@ -5938,13 +5941,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B215" s="1">
         <v>2401396</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D215" s="1">
         <v>4</v>
@@ -5955,13 +5958,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B216" s="1">
         <v>2401397</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D216" s="1">
         <v>1</v>
@@ -5972,13 +5975,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B217" s="1">
         <v>2401398</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D217" s="1">
         <v>4</v>
@@ -5989,13 +5992,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B218" s="1">
         <v>2401402</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D218" s="1">
         <v>9</v>
@@ -6006,13 +6009,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B219" s="1">
         <v>2401404</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D219" s="1">
         <v>7</v>
@@ -6023,13 +6026,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B220" s="1">
         <v>2401405</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D220" s="1">
         <v>9</v>
@@ -6040,13 +6043,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B221" s="1">
         <v>2401406</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D221" s="1">
         <v>7</v>
@@ -6057,13 +6060,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B222" s="1">
         <v>2401408</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E222" s="1">
         <v>17</v>
@@ -6071,13 +6074,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B223" s="1">
         <v>2401409</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D223" s="1">
         <v>1</v>
@@ -6085,13 +6088,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B224" s="1">
         <v>2401411</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D224" s="1">
         <v>3</v>
@@ -6102,13 +6105,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B225" s="1">
         <v>2401413</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D225" s="1">
         <v>9</v>
@@ -6119,13 +6122,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B226" s="1">
         <v>2401415</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D226" s="1">
         <v>13</v>
@@ -6136,13 +6139,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B227" s="1">
         <v>2401418</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -6153,13 +6156,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B228" s="1">
         <v>2401419</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D228" s="1">
         <v>0</v>
@@ -6170,13 +6173,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B229" s="1">
         <v>2401420</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D229" s="1">
         <v>2</v>
@@ -6187,13 +6190,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B230" s="1">
         <v>2401421</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D230" s="1">
         <v>8</v>
@@ -6204,13 +6207,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B231" s="1">
         <v>2401423</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D231" s="1">
         <v>5</v>
@@ -6221,13 +6224,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B232" s="1">
         <v>2401429</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D232" s="1">
         <v>6</v>
@@ -6238,13 +6241,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B233" s="1">
         <v>2401430</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D233" s="1">
         <v>13</v>
@@ -6255,13 +6258,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B234" s="1">
         <v>2401431</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D234" s="1">
         <v>6</v>
@@ -6272,13 +6275,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B235" s="1">
         <v>2401436</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D235" s="1">
         <v>0</v>
@@ -6289,13 +6292,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B236" s="1">
         <v>2401437</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D236" s="1">
         <v>7</v>
@@ -6306,13 +6309,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B237" s="1">
         <v>2401438</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D237" s="1">
         <v>9</v>
@@ -6323,13 +6326,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B238" s="1">
         <v>2401440</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E238" s="1">
         <v>4</v>
@@ -6337,13 +6340,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B239" s="1">
         <v>2401442</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D239" s="1">
         <v>10</v>
@@ -6354,13 +6357,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B240" s="1">
         <v>2401445</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D240" s="1">
         <v>7</v>
@@ -6371,13 +6374,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B241" s="1">
         <v>2401446</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D241" s="1">
         <v>2</v>
@@ -6388,13 +6391,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B242" s="1">
         <v>2401451</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D242" s="1">
         <v>6</v>
@@ -6405,13 +6408,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B243" s="1">
         <v>2401452</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D243" s="1">
         <v>4</v>
@@ -6422,13 +6425,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B244" s="1">
         <v>2401454</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D244" s="1">
         <v>11</v>
@@ -6439,13 +6442,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B245" s="1">
         <v>2401456</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D245" s="1">
         <v>5</v>
@@ -6456,13 +6459,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B246" s="1">
         <v>2401458</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D246" s="1">
         <v>2</v>
@@ -6473,13 +6476,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B247" s="1">
         <v>2401459</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D247" s="1">
         <v>4</v>
@@ -6490,13 +6493,13 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B248" s="1">
         <v>2401460</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D248" s="1">
         <v>0</v>
@@ -6507,13 +6510,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B249" s="1">
         <v>2401461</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D249" s="1">
         <v>9</v>
@@ -6524,13 +6527,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B250" s="1">
         <v>2401463</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D250" s="1">
         <v>5</v>
@@ -6541,13 +6544,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B251" s="1">
         <v>2401464</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D251" s="1">
         <v>0</v>
@@ -6558,13 +6561,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B252" s="1">
         <v>2401467</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D252" s="1">
         <v>9</v>
@@ -6575,13 +6578,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B253" s="1">
         <v>2401470</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D253" s="1">
         <v>4</v>
@@ -6592,13 +6595,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B254" s="1">
         <v>2401472</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D254" s="1">
         <v>5</v>
@@ -6609,13 +6612,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B255" s="1">
         <v>2401474</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E255" s="1">
         <v>0</v>
@@ -6623,13 +6626,13 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B256" s="1">
         <v>2401475</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D256" s="1">
         <v>12</v>
@@ -6640,13 +6643,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B257" s="1">
         <v>2401477</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D257" s="1">
         <v>2</v>
@@ -6657,13 +6660,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B258" s="1">
         <v>2401478</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D258" s="1">
         <v>5</v>
@@ -6674,13 +6677,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B259" s="1">
         <v>2401480</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D259" s="1">
         <v>13</v>
@@ -6688,13 +6691,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B260" s="1">
         <v>2401483</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D260" s="1">
         <v>0</v>
@@ -6705,13 +6708,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B261" s="1">
         <v>2401484</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D261" s="1">
         <v>6</v>
@@ -6722,13 +6725,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B262" s="1">
         <v>2401487</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D262" s="1">
         <v>12</v>
@@ -6739,13 +6742,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B263" s="1">
         <v>2401489</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D263" s="1">
         <v>3</v>
@@ -6756,13 +6759,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B264" s="1">
         <v>2401490</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D264" s="1">
         <v>7</v>
@@ -6773,13 +6776,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B265" s="1">
         <v>2401491</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D265" s="1">
         <v>3</v>
@@ -6790,13 +6793,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B266" s="1">
         <v>2401492</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D266" s="1">
         <v>0</v>
@@ -6807,13 +6810,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B267" s="1">
         <v>2401493</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E267" s="1">
         <v>8</v>
@@ -6821,13 +6824,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B268" s="1">
         <v>2401501</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E268" s="1">
         <v>10</v>
@@ -6835,13 +6838,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B269" s="1">
         <v>2401502</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D269" s="1">
         <v>13</v>
@@ -6852,13 +6855,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B270" s="1">
         <v>2401503</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D270" s="1">
         <v>0</v>
@@ -6869,13 +6872,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B271" s="1">
         <v>2401504</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D271" s="1">
         <v>3</v>
@@ -6886,13 +6889,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B272" s="1">
         <v>2401506</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D272" s="1">
         <v>0</v>
@@ -6903,13 +6906,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B273" s="1">
         <v>2401507</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D273" s="1">
         <v>6</v>
@@ -6920,13 +6923,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B274" s="1">
         <v>2401511</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D274" s="1">
         <v>8</v>
@@ -6937,13 +6940,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B275" s="1">
         <v>2401512</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E275" s="1">
         <v>4</v>
@@ -6951,13 +6954,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B276" s="1">
         <v>2401513</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D276" s="1">
         <v>6</v>
@@ -6968,13 +6971,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B277" s="1">
         <v>2401514</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D277" s="1">
         <v>9</v>
@@ -6985,13 +6988,13 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B278" s="1">
         <v>2401515</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D278" s="1">
         <v>5</v>
@@ -7002,13 +7005,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B279" s="1">
         <v>2401516</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D279" s="1">
         <v>3</v>
@@ -7019,13 +7022,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B280" s="1">
         <v>2401517</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D280" s="1">
         <v>5</v>
@@ -7036,13 +7039,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B281" s="1">
         <v>2401520</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D281" s="1">
         <v>0</v>
@@ -7053,13 +7056,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B282" s="1">
         <v>2401521</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D282" s="1">
         <v>0</v>
@@ -7070,13 +7073,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B283" s="1">
         <v>2401522</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D283" s="1">
         <v>6</v>
@@ -7087,13 +7090,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B284" s="1">
         <v>2401525</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D284" s="1">
         <v>4</v>
@@ -7104,13 +7107,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B285" s="1">
         <v>2401526</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D285" s="1">
         <v>14</v>
@@ -7121,13 +7124,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B286" s="1">
         <v>2401527</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D286" s="1">
         <v>15</v>
@@ -7138,13 +7141,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B287" s="1">
         <v>2401529</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D287" s="1">
         <v>6</v>
@@ -7155,13 +7158,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B288" s="1">
         <v>2401530</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D288" s="1">
         <v>7</v>
@@ -7172,13 +7175,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B289" s="1">
         <v>2401531</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D289" s="1">
         <v>6</v>
@@ -7189,13 +7192,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B290" s="1">
         <v>2401532</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D290" s="1">
         <v>11</v>
@@ -7206,13 +7209,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B291" s="1">
         <v>2401533</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E291" s="1">
         <v>10</v>
@@ -7220,13 +7223,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B292" s="1">
         <v>2401534</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D292" s="1">
         <v>12</v>
@@ -7237,13 +7240,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B293" s="1">
         <v>2401535</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D293" s="1">
         <v>10</v>
@@ -7254,13 +7257,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B294" s="1">
         <v>2401536</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D294" s="1">
         <v>2</v>
@@ -7271,13 +7274,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B295" s="1">
         <v>2401537</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D295" s="1">
         <v>5</v>
@@ -7288,13 +7291,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B296" s="1">
         <v>2401538</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D296" s="1">
         <v>0</v>
@@ -7305,13 +7308,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B297" s="1">
         <v>2401542</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D297" s="1">
         <v>2</v>
@@ -7322,13 +7325,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B298" s="1">
         <v>2401543</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E298" s="1">
         <v>2</v>
@@ -7336,13 +7339,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B299" s="1">
         <v>2401544</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D299" s="1">
         <v>10</v>
@@ -7353,13 +7356,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B300" s="1">
         <v>2401545</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D300" s="1">
         <v>12</v>
@@ -7370,13 +7373,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B301" s="1">
         <v>2401547</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D301" s="1">
         <v>2</v>
@@ -7387,13 +7390,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B302" s="1">
         <v>2401549</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D302" s="1">
         <v>9</v>
@@ -7404,13 +7407,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B303" s="1">
         <v>2401551</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D303" s="1">
         <v>15</v>
@@ -7421,13 +7424,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B304" s="1">
         <v>2401553</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D304" s="1">
         <v>2</v>
@@ -7435,13 +7438,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B305" s="1">
         <v>2401554</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D305" s="1">
         <v>13</v>
@@ -7452,13 +7455,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B306" s="1">
         <v>2401555</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D306" s="1">
         <v>10</v>
@@ -7469,13 +7472,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B307" s="1">
         <v>2401557</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D307" s="1">
         <v>4</v>
@@ -7486,13 +7489,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B308" s="1">
         <v>2401558</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D308" s="1">
         <v>1</v>
@@ -7503,13 +7506,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B309" s="1">
         <v>2401560</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D309" s="1">
         <v>4</v>
@@ -7520,13 +7523,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B310" s="1">
         <v>2401562</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D310" s="1">
         <v>0</v>
@@ -7537,13 +7540,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B311" s="1">
         <v>2401563</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D311" s="1">
         <v>7</v>
@@ -7554,13 +7557,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B312" s="1">
         <v>2401567</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D312" s="1">
         <v>0</v>
@@ -7571,13 +7574,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B313" s="1">
         <v>2401569</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D313" s="1">
         <v>6</v>
@@ -7588,13 +7591,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B314" s="1">
         <v>2401571</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D314" s="1">
         <v>9</v>
@@ -7605,13 +7608,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B315" s="1">
         <v>2401572</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D315" s="1">
         <v>13</v>
@@ -7622,13 +7625,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B316" s="1">
         <v>2401574</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D316" s="1">
         <v>15</v>
@@ -7639,13 +7642,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B317" s="1">
         <v>2401575</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D317" s="1">
         <v>6</v>
@@ -7656,13 +7659,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B318" s="1">
         <v>2401576</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D318" s="1">
         <v>3</v>
@@ -7673,13 +7676,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B319" s="1">
         <v>2401581</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D319" s="1">
         <v>1</v>
@@ -7690,13 +7693,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B320" s="1">
         <v>2401584</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D320" s="1">
         <v>10</v>
@@ -7707,13 +7710,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B321" s="1">
         <v>2401586</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D321" s="1">
         <v>13</v>
@@ -7724,13 +7727,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B322" s="1">
         <v>2401587</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D322" s="1">
         <v>4</v>
@@ -7741,13 +7744,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B323" s="1">
         <v>2401589</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D323" s="1">
         <v>11</v>
@@ -7758,13 +7761,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B324" s="1">
         <v>2401593</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D324" s="1">
         <v>13</v>
@@ -7775,13 +7778,13 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B325" s="1">
         <v>2401594</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D325" s="1">
         <v>0</v>
@@ -7792,13 +7795,13 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B326" s="1">
         <v>2401595</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D326" s="1">
         <v>14</v>
@@ -7809,13 +7812,13 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B327" s="1">
         <v>2401597</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -7823,13 +7826,13 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B328" s="1">
         <v>2401598</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D328" s="1">
         <v>10</v>
@@ -7840,13 +7843,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B329" s="1">
         <v>2401600</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D329" s="1">
         <v>7</v>
@@ -7857,13 +7860,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B330" s="1">
         <v>2401601</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D330" s="1">
         <v>10</v>
@@ -7874,13 +7877,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B331" s="1">
         <v>2401540</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D331" s="1">
         <v>12</v>
@@ -7888,13 +7891,13 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B332" s="1">
         <v>2401505</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D332" s="1">
         <v>14</v>
@@ -7902,13 +7905,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B333" s="1">
         <v>2401422</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D333" s="1">
         <v>3</v>
@@ -7916,13 +7919,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B334" s="1">
         <v>2401021</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E334" s="1">
         <v>6</v>
@@ -7930,13 +7933,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B335" s="1">
         <v>2401050</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E335" s="1">
         <v>2</v>
@@ -7944,13 +7947,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B336" s="1">
         <v>2401060</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E336" s="1">
         <v>4</v>
@@ -7961,7 +7964,7 @@
         <v>2401121</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E337" s="1">
         <v>11</v>
@@ -7969,13 +7972,13 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B338" s="1">
         <v>2401149</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E338" s="1">
         <v>4</v>
@@ -7983,13 +7986,13 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B339" s="1">
         <v>2401255</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E339" s="1">
         <v>6</v>
@@ -7997,13 +8000,13 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B340" s="1">
         <v>2401602</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E340" s="1">
         <v>10</v>
